--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E424"/>
+  <dimension ref="A1:E440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,24 +461,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>보드랍고 화창한 바람</t>
+          <t>하늘이 [보인다]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>명지바람</t>
+          <t>피동</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>의미_바람</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>합성어</t>
-        </is>
-      </c>
+          <t>피동 vs 사동</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -486,24 +482,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서쪽에서 부는 바람</t>
+          <t>신제품에 선을 [보인다]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>하늬바람</t>
+          <t>사동</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>의미_바람</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+          <t>피동 vs 사동</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -511,24 +503,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+          <t>책이 많은 사람들에게 [읽힌다]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>살바람</t>
+          <t>피동</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>의미_바람</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>합성어</t>
-        </is>
-      </c>
+          <t>피동 vs 사동</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -536,24 +524,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+          <t>아이들에게 신문 사설을 [읽힌다]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>높새바람</t>
+          <t>사동</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>의미_바람</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+          <t>피동 vs 사동</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -561,17 +545,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-시-], [께서], [-님], 진지, 계시다, 잡수시다</t>
+          <t>손에 짐이 [들려] 문을 열 수가 없었다</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>주체 높임법</t>
+          <t>피동</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>높임법 구분</t>
+          <t>피동 vs 사동</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -582,17 +566,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>께(조사), 모시다, 드리다, 뵙다, 어쭙다</t>
+          <t>친구에게 꽃을 [들려] 집에 보냈다</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>객체 높임법</t>
+          <t>사동</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>높임법 구분</t>
+          <t>피동 vs 사동</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -603,17 +587,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>종결어미로 표현</t>
+          <t>눈물</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>상대 높임법</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>높임법 구분</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -624,17 +608,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>금강산 그늘이 관동 팔십 리</t>
+          <t>작은집</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -645,17 +629,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>서 발 막대 거칠 것 없다</t>
+          <t>가로지르다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>가난해 세간이 없음, 거리낄 것이 없음</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -666,17 +650,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>무른 땅에 말뚝 박기</t>
+          <t>못나다</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -687,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>우물에 가 숭늉 찾는다</t>
+          <t>값나가다</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>일의 순서도 모르고 성급하게 덤빔</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -708,17 +692,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>가난한 집 족보 자랑하기다</t>
+          <t>낯설다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>실속은 없으면서 허세만 부리다</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -729,17 +713,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>사또 덕분에 나팔 분다</t>
+          <t>본받다</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>남의 덕으로 분에 넘치는 행세를 한다</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -750,17 +734,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>아쉬운 감 유월부터 한다</t>
+          <t>이리저리</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -771,17 +755,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>하늘 보고 손가락질한다(주먹질한다)</t>
+          <t>곧잘</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>무모하게 시비를 걸며 욕하다. 능력이 없으면서 어떤 일을 이루려 하다</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -792,17 +776,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>불감청이언정 고소원이라</t>
+          <t>돌아가다</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -813,17 +797,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>가랑이가 찟어지다</t>
+          <t>벗어나다</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -834,17 +818,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>동풍 안개 속에 수수 잎 꼬이듯</t>
+          <t>검버섯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>심술이 사납고 성질이 순순하지 못함</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -855,17 +839,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>동풍에 원두한의 탄식</t>
+          <t>오르내리다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -876,17 +860,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>동풍에 곡식이 병난다</t>
+          <t>먹거리</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -897,17 +881,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>패랭이에 숟가락 꽂고 산다</t>
+          <t>우짖다</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -918,17 +902,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>태산 명동에 서일필</t>
+          <t>뛰놀다</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -939,17 +923,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>터진 방앗공이에 보리알 끼듯 하였다</t>
+          <t>볼록거울</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -960,17 +944,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>보리누름까지 세배한다</t>
+          <t>뾰족구두</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -981,17 +965,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>말 같지 않은 말은 귀가 없다</t>
+          <t>산들바람</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1002,17 +986,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>남의 말이라면 쌍지팡이 짚고 나선다</t>
+          <t>피땀</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1023,17 +1007,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>말 안 하면 귀신도 모른다</t>
+          <t>열쇠</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1044,17 +1028,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>남의 말도 석 달</t>
+          <t>길짐승</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>소문은 시일이 지나면 흐지부지 없어지고 만다는 말.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1065,17 +1049,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>말 가는 데 소도 간다</t>
+          <t>날짐승</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>남이 하는 일이면 저도 노력하여 능히 할 수 있다.</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1086,17 +1070,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>조금이라도 이용 가치가 있을까 하여 보잘것없는 것을 두고두고 되풀이하여 이용함</t>
+          <t>첫사랑</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">노루 때린 막대기 세 번이나 국 끓여 먹는다 </t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>속담</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1107,17 +1091,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[-다]</t>
+          <t>눈발</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1128,17 +1112,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한다</t>
+          <t>서릿발</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1149,17 +1133,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[-네]</t>
+          <t>생겨나다</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1170,17 +1154,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>하네</t>
+          <t>먹을거리</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1191,17 +1175,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[-오]</t>
+          <t>우리나라</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1212,17 +1196,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>하오</t>
+          <t>우리말</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1233,17 +1217,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[-(습)니다]</t>
+          <t>우리글</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1254,17 +1238,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>합니다</t>
+          <t>날고기</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1275,17 +1259,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[-아/어]</t>
+          <t>강아지</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1296,17 +1280,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>가</t>
+          <t>잡아먹히다</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1317,17 +1301,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[-(아/어)요]</t>
+          <t>되돌리다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1338,17 +1322,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>가요</t>
+          <t>건강하다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1359,17 +1343,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[-구나], [-어라]</t>
+          <t>공부하다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1380,17 +1364,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>춥구나, 추워라</t>
+          <t>유지하다</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1401,17 +1385,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[-구먼]</t>
+          <t>풋사랑</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1422,17 +1406,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>춥구먼</t>
+          <t>단호박</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1443,17 +1427,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[-구려]</t>
+          <t>단팥죽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1464,17 +1448,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>춥구려</t>
+          <t>바가지</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1485,17 +1469,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[-군/어]</t>
+          <t>끗발</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1506,17 +1490,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>춥군, 추워</t>
+          <t>화장발</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1527,17 +1511,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[-군요]</t>
+          <t>늦더위</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1548,17 +1532,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>춥군요</t>
+          <t>늦가을</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1569,17 +1553,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[-느냐?], [-니?], [-지?]</t>
+          <t>값어치</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1590,17 +1574,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>하니?</t>
+          <t>감발</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1611,17 +1595,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[-냐?], [-는가?]</t>
+          <t>꺾쇠</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1632,17 +1616,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>하나?, 하는가?</t>
+          <t>얽매다</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1653,17 +1637,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[-오?]</t>
+          <t>검붉다</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1674,17 +1658,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>하오?</t>
+          <t>덮밥</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1695,17 +1679,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[-습니다], [-읍니까?]</t>
+          <t>부슬비</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1716,17 +1700,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>합니까?</t>
+          <t>높푸르다</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1737,17 +1721,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[-아/어?]</t>
+          <t>스며들다</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -1758,17 +1742,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>해?</t>
+          <t>새빨갛다</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1779,17 +1763,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[-(아/어)요?]</t>
+          <t>짙푸르다</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1800,17 +1784,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>해요?</t>
+          <t>젊은이</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1821,17 +1805,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[-(아/어)라]</t>
+          <t>가로막다</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1842,17 +1826,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>보아라, 먹어라</t>
+          <t>새해</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -1863,17 +1847,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[-게]</t>
+          <t>힘들다</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -1884,17 +1868,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>보게, 먹게</t>
+          <t>접칼</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -1905,17 +1889,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[-오], [-구려]</t>
+          <t>돌아오다</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -1926,17 +1910,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>보오, 먹구려</t>
+          <t>굳세다</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1947,17 +1931,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[-(으)십시오]</t>
+          <t>밤낮</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -1968,17 +1952,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>보십시오</t>
+          <t>굶주리다</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -1989,17 +1973,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[-아/어], [-지]</t>
+          <t>빛나다</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2010,17 +1994,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>먹어, 먹지</t>
+          <t>맛나다</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2031,17 +2015,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[-(아/어)요], [-지요]</t>
+          <t>별나다</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2052,17 +2036,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>먹어요, 먹지요</t>
+          <t>보살피다</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2073,17 +2057,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[-자]</t>
+          <t>잠보</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2094,17 +2078,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>하자</t>
+          <t>점쟁이</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2115,17 +2099,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[-세]</t>
+          <t>일꾼</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2136,17 +2120,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>하세</t>
+          <t>덮개</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2157,17 +2141,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[-ㅂ시다]</t>
+          <t>넓이</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2178,17 +2162,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>합시다</t>
+          <t>조용하</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2199,17 +2183,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[-시지요]</t>
+          <t>군것질</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2220,17 +2204,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>하시지요</t>
+          <t>선생님</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2241,17 +2225,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[-아/어]</t>
+          <t>먹히다</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2262,17 +2246,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>해</t>
+          <t>거멓다</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2283,17 +2267,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[-(아/어)요]</t>
+          <t>맨손</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2304,17 +2288,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>해요</t>
+          <t>군소리</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>비격식체</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>문법_종결형 격식 판단</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2325,18 +2309,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>일의 진행 과정에서 가장 중요한 대목
-그는 줄목을 무사히 넘겼다</t>
+          <t>시누이</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>줄목</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2347,18 +2330,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>이미 내디뎌 걷고 있는 그대로의 걸음
-그 사람들고 선걸음으로 그리 내달았다</t>
+          <t>빗나가다</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>선걸음</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2369,18 +2351,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>물건 따위를 잘 정리하거나 간수함
-겨울 동안 갈무리를 했던 산나물을 팔았다</t>
+          <t>새파랗다</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>갈무리</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2391,18 +2372,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>옷을 입고 매만진 맵시
-그는 인물보다 맨드리가 쓰레기꾼 축에 섞이기는 아까웠다</t>
+          <t>개살구</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>맨드리</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2413,18 +2393,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>음식을 먹지 않음
-그녀는 잔입으로 출근 시간이 되기만을 기다렸다</t>
+          <t>헛웃음</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>잔입</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2435,18 +2414,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
-2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일</t>
+          <t>낚시질</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>만수받이</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2457,17 +2435,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말</t>
+          <t>지우개</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>윤똑똑이</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2478,17 +2456,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말</t>
+          <t>건어물</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>트레바리</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2499,18 +2477,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
-2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말</t>
+          <t>손짓</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>오그랑이</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2521,17 +2498,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>물건</t>
+          <t>비지땀</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>황후</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2542,17 +2519,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>게</t>
+          <t>사랑채</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>동난지이</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2563,17 +2540,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>장사꾼</t>
+          <t>쌍동밤</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>쟝스</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2584,17 +2561,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>다리</t>
+          <t>장작불</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>아리</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2605,18 +2582,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1. 민속 땅, 돌, 나무 따위를 잘못 건드려 지신(地神)을 화나게 하여 재앙을 받는 일. 또는 그 재앙.
-2. 건드려서는 안 될 것을 공연히 건드려서 스스로 걱정이나 해를 입음. 또는 그 걱정이나 피해를 비유적으로 이르는 말.</t>
+          <t>돌보다</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>동티</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2627,17 +2603,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>가스 상태의 빛나는 긴 꼬리를 끌고 태양을 초점으로 긴 타원이나 포물선에 가까운 궤도를 그리며 운행하는 천체. 핵, 코마, 꼬리 부분으로 이루어져 있다.</t>
+          <t>강추위</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>살별</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2648,17 +2624,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>‘유성’을 일상적으로 이르는 말.</t>
+          <t>날강도</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>별똥별</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2669,17 +2645,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>중심 별의 강한 인력의 영향으로 타원 궤도를 그리며 중심 별의 주위를 도는 천체. 스스로 빛을 내지 못하고, 중심 별의 빛을 받아 반사한다. 태양계에는 수성, 금성, 지구, 화성, 목성, 토성, 천왕성, 해왕성의 여덟 개 행성이 있다.</t>
+          <t>짓누르다</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>떠돌이별</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2690,18 +2666,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1. ‘금성’을 일상적으로 이르는 말.
-2. 장래에 큰 발전을 이룩할 만한 사람을 비유적으로 이르는 말.</t>
+          <t>온갓</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>샛별</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2712,17 +2687,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>부유한 집에서 자라나 세상의 어려운 일을 잘 모르는 사람을 비유적으로 이르는 말.</t>
+          <t>게을러빠지다</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>궁도련님</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2733,17 +2708,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>책상 앞에 앉아 글공부만 하여 세상일을 잘 모르는 사람을 낮잡아 이르는 말.</t>
+          <t>끝내</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>책상물림</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2754,17 +2729,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>온갖 어려운 일을 겪어서 아주 야무진 사람을 비유적으로 이르는 말.</t>
+          <t>참꽃</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>대갈마치</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2775,17 +2750,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>많은 힘을 들여 애를 씀</t>
+          <t>한겨울</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>적공</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2796,17 +2771,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>더할 나위 없이 매우 가난함</t>
+          <t>들개</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>철빈</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2817,17 +2792,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>늙은 뒤의 운수나 처지</t>
+          <t>움직이다</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>후분</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2838,17 +2813,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>멀리멀리</t>
+          <t>한낮</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>머리곰</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2859,17 +2834,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>바다 위에 낀 짙은 안개</t>
+          <t>어느덧</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>해미</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -2880,17 +2855,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>사기그릇을 만드는 돌림판의 밑구멍에 끼우는 사기로 된 고리</t>
+          <t>들쑤시다</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>갓모</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -2901,17 +2876,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>일을 꾸려 나가는 사람을 곁에서 거들어 도와줌</t>
+          <t>마음껏</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>봉죽</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -2922,17 +2897,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>자식이 커서 부모를 봉양하는 일</t>
+          <t>불호령</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>안갚음</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -2943,17 +2918,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>남이 말하는 앞에서 덩달아 참견하는 말</t>
+          <t>여남은</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>말곁</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -2964,17 +2939,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>떼 지어 으르고 협박함</t>
+          <t>마중</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>울력성당</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2985,17 +2960,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>마음에도 없이 겉치레로 하는 말</t>
+          <t>인간</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>입에 발린 소리</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -3006,17 +2981,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>담은 것이 그릇에 넘치도록 많이</t>
+          <t>한국인</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>안다미로</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3027,17 +3002,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>나무나 풀에 내려 눈처럼 된 서리</t>
+          <t>까막까치</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>상고대</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>의미_명사</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3048,17 +3023,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>인사말/인삿말</t>
+          <t>손쉽다</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>사이시옷 X</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3069,17 +3044,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>머리말/머릿말</t>
+          <t>시름없다</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>사이시옷 X</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3090,17 +3065,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>꼬리말/꼬릿말</t>
+          <t>남다르다</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>사이시옷 X</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3111,17 +3086,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>예사말/예삿말</t>
+          <t>기와집</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>사이시옷 X</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3132,17 +3107,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>노래말/노랫말</t>
+          <t>치솟다</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>사이시옷 O</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3153,17 +3128,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>혼자말/혼잣말</t>
+          <t>고무신</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>사이시옷 O</t>
+          <t>합성어</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3174,17 +3149,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>존대말/존댓말</t>
+          <t>놀이</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>사이시옷 O</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3195,17 +3170,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>혼사말/혼삿말</t>
+          <t>마침내</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>사이시옷 O</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3216,17 +3191,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>본디말/본딧말</t>
+          <t>봄내</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>사이시옷 O</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>복합어</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3237,12 +3212,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>눈물</t>
+          <t>여름내</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3258,12 +3233,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>작은집</t>
+          <t>저녁내</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3279,12 +3254,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>가로지르다</t>
+          <t>들장미</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3300,12 +3275,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>못나다</t>
+          <t>들국화</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3321,12 +3296,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>값나가다</t>
+          <t>끄덕이다</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3342,12 +3317,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>낯설다</t>
+          <t>망설이다</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3363,12 +3338,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>본받다</t>
+          <t>반짝이다</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3384,12 +3359,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>이리저리</t>
+          <t>한껏</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3405,12 +3380,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>곧잘</t>
+          <t>힘껏</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3426,12 +3401,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>돌아가다</t>
+          <t>눈치껏</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3447,12 +3422,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>벗어나다</t>
+          <t>정성껏</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3468,12 +3443,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>검버섯</t>
+          <t>성의껏</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3489,12 +3464,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>오르내리다</t>
+          <t>지금껏</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3510,12 +3485,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>먹거리</t>
+          <t>아직껏</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3531,12 +3506,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>우짖다</t>
+          <t>여태껏</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>파생어</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3552,17 +3527,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>뛰놀다</t>
+          <t>매월 [첫째] 주 화요일에 쉰다</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -3573,17 +3548,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>볼록거울</t>
+          <t>쟁반에 사과 [다섯] 개가 있다</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -3594,17 +3569,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>뾰족구두</t>
+          <t>얼굴이 [다른] 아버지와 아들</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3615,17 +3590,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>산들바람</t>
+          <t>[다른] 생각 말고 공부나 해라</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -3636,17 +3611,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>피땀</t>
+          <t>생김새가 [어떤] 사람이니?</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3657,17 +3632,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>열쇠</t>
+          <t>[어떤] 옷이 맘에 드니?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3678,17 +3653,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>길짐승</t>
+          <t>오늘은 이만하고 [내일] 다시 시작합시다</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3699,17 +3674,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>날짐승</t>
+          <t>[스스로] 할 수 있는 일을 남에게 미루지 마라</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3720,17 +3695,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>첫사랑</t>
+          <t>그는 [스스로] 입대하였다</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3741,17 +3716,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>눈발</t>
+          <t>벌써 날이 [밝다]</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3762,17 +3737,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>서릿발</t>
+          <t>조명이 [밝다]</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3783,17 +3758,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>생겨나다</t>
+          <t>철수는 요즘 매일 키가 [크다]</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3804,17 +3779,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>먹을거리</t>
+          <t>그는 발이 무척 [크다]</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3825,17 +3800,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>우리나라</t>
+          <t>언니는 토요일에 항상 집에 [있다]</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3846,17 +3821,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>우리말</t>
+          <t>지갑이 집에 [있다]</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3867,17 +3842,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>우리글</t>
+          <t>[아무] 사람이나 만나서는 안 된다</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -3888,17 +3863,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>날고기</t>
+          <t>[그] 책 이리 좀 줘 봐</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -3909,17 +3884,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>강아지</t>
+          <t>바람이 [아니] 분다</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -3930,17 +3905,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>잡아먹히다</t>
+          <t>친구와 [같이] 영화관에 갔다</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -3951,17 +3926,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>되돌리다</t>
+          <t>[보다] 빠르게 뛰다</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3972,17 +3947,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>건강하다</t>
+          <t>[많이] 먹다</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -3993,17 +3968,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>공부하다</t>
+          <t>바람이 [가볍게] 부는 날씨에 기분이 좋았다</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4014,17 +3989,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>유지하다</t>
+          <t>소인은 [없이] 사는 것을 부끄럽게 여긴다</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4035,17 +4010,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>풋사랑</t>
+          <t>반죽이 [되게] 묽어 국수 만들기가 어렵다</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -4056,17 +4031,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>단호박</t>
+          <t>그들은 [여남은] 평이 되는 공간에 방을 꾸미고 살고 있었다</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -4077,17 +4052,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>단팥죽</t>
+          <t>[오랜] 가뭄 끝에 비가 내렸다</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>관형사</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_수식언_용언</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -4098,17 +4073,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>바가지</t>
+          <t>높임의 호격조사</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -4119,17 +4094,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>끗발</t>
+          <t>강조 접미사</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>곰</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -4140,17 +4115,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>화장발</t>
+          <t>주체 높임 선어말 어미</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>샤</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -4161,17 +4136,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>늦더위</t>
+          <t>~할까 두렵다</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>ㄹ셰라</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -4182,17 +4157,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>늦가을</t>
+          <t>모습이</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>즈이</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4203,17 +4178,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>값어치</t>
+          <t>저물까 두렵다</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>졈그롤셰라</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -4224,17 +4199,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>감발</t>
+          <t>미워할 사람도 사랑할 사람도 없이</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>믜리도 괴리도 없이</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -4245,17 +4220,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>꺾쇠</t>
+          <t>드로라</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>듣노라</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -4266,17 +4241,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>얽매다</t>
+          <t>님의손되</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>임에게</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -4287,17 +4262,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>검붉다</t>
+          <t>갈회</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>가려</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>의미_고전</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -4308,17 +4283,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>덮밥</t>
+          <t>자신의 살아있는 아버지</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>가친, 엄친</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -4329,17 +4304,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>부슬비</t>
+          <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>춘부장, 춘장, 춘당, 어르신, 어르신네</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -4350,17 +4325,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>높푸르다</t>
+          <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>선친, 선고, 선부군</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -4371,17 +4346,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>스며들다</t>
+          <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>선대인, 선고장, 선장</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -4392,17 +4367,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>새빨갛다</t>
+          <t>자신의 살아있는 어머니</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>자친, 가자, 모친</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -4413,17 +4388,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>짙푸르다</t>
+          <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>자당, 훤당, 모당, 모부인</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -4434,17 +4409,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>젊은이</t>
+          <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>선비, 선자</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4455,17 +4430,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>가로막다</t>
+          <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>선대부인</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>부모 호칭</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -4476,17 +4451,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>새해</t>
+          <t>[-다]</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -4497,17 +4472,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>힘들다</t>
+          <t>한다</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -4518,17 +4493,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>접칼</t>
+          <t>[-네]</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -4539,17 +4514,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>돌아오다</t>
+          <t>하네</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -4560,17 +4535,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>굳세다</t>
+          <t>[-오]</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -4581,17 +4556,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>밤낮</t>
+          <t>하오</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -4602,17 +4577,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>굶주리다</t>
+          <t>[-(습)니다]</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -4623,17 +4598,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>빛나다</t>
+          <t>합니다</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -4644,17 +4619,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>맛나다</t>
+          <t>[-아/어]</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -4665,17 +4640,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>별나다</t>
+          <t>가</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -4686,17 +4661,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>보살피다</t>
+          <t>[-(아/어)요]</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -4707,17 +4682,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>잠보</t>
+          <t>가요</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -4728,17 +4703,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>점쟁이</t>
+          <t>[-구나], [-어라]</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -4749,17 +4724,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>일꾼</t>
+          <t>춥구나, 추워라</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -4770,17 +4745,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>덮개</t>
+          <t>[-구먼]</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -4791,17 +4766,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>넓이</t>
+          <t>춥구먼</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -4812,17 +4787,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>조용하</t>
+          <t>[-구려]</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -4833,17 +4808,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>군것질</t>
+          <t>춥구려</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -4854,17 +4829,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>선생님</t>
+          <t>[-군/어]</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -4875,17 +4850,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>먹히다</t>
+          <t>춥군, 추워</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4896,17 +4871,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>거멓다</t>
+          <t>[-군요]</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -4917,17 +4892,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>맨손</t>
+          <t>춥군요</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4938,17 +4913,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>군소리</t>
+          <t>[-느냐?], [-니?], [-지?]</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -4959,17 +4934,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>시누이</t>
+          <t>하니?</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -4980,17 +4955,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>빗나가다</t>
+          <t>[-냐?], [-는가?]</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -5001,17 +4976,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>새파랗다</t>
+          <t>하나?, 하는가?</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -5022,17 +4997,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>개살구</t>
+          <t>[-오?]</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -5043,17 +5018,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>헛웃음</t>
+          <t>하오?</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5064,17 +5039,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>낚시질</t>
+          <t>[-습니다], [-읍니까?]</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5085,17 +5060,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>지우개</t>
+          <t>합니까?</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -5106,17 +5081,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>[-아/어?]</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -5127,17 +5102,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>손짓</t>
+          <t>해?</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -5148,17 +5123,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>비지땀</t>
+          <t>[-(아/어)요?]</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5169,17 +5144,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>사랑채</t>
+          <t>해요?</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5190,17 +5165,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>쌍동밤</t>
+          <t>[-(아/어)라]</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5211,17 +5186,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>장작불</t>
+          <t>보아라, 먹어라</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5232,17 +5207,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>돌보다</t>
+          <t>[-게]</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5253,17 +5228,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>강추위</t>
+          <t>보게, 먹게</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5274,17 +5249,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>날강도</t>
+          <t>[-오], [-구려]</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -5295,17 +5270,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>짓누르다</t>
+          <t>보오, 먹구려</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5316,17 +5291,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>온갓</t>
+          <t>[-(으)십시오]</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5337,17 +5312,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>게을러빠지다</t>
+          <t>보십시오</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -5358,17 +5333,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>끝내</t>
+          <t>[-아/어], [-지]</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5379,17 +5354,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>참꽃</t>
+          <t>먹어, 먹지</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5400,17 +5375,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>한겨울</t>
+          <t>[-(아/어)요], [-지요]</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5421,17 +5396,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>들개</t>
+          <t>먹어요, 먹지요</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5442,17 +5417,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>움직이다</t>
+          <t>[-자]</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -5463,17 +5438,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>한낮</t>
+          <t>하자</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해라체</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -5484,17 +5459,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>어느덧</t>
+          <t>[-세]</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -5505,17 +5480,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>들쑤시다</t>
+          <t>하세</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하게체</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -5526,17 +5501,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>마음껏</t>
+          <t>[-ㅂ시다]</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -5547,17 +5522,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>불호령</t>
+          <t>합시다</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하오체</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -5568,17 +5543,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>여남은</t>
+          <t>[-시지요]</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -5589,17 +5564,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>마중</t>
+          <t>하시지요</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>하십시오체</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -5610,17 +5585,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>인간</t>
+          <t>[-아/어]</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -5631,17 +5606,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>한국인</t>
+          <t>해</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>해체</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -5652,17 +5627,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>까막까치</t>
+          <t>[-(아/어)요]</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -5673,17 +5648,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>손쉽다</t>
+          <t>해요</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>해요체</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -5694,17 +5669,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>시름없다</t>
+          <t>[아니]! 이디 가겠단 말이냐</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>감탄사</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_품사없음</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -5715,17 +5690,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>남다르다</t>
+          <t>그것은 사과이[요], 저것은 딸기이다</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>품사없음(어미)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>품사_품사없음</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -5736,20 +5711,24 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>기와집</t>
+          <t>보드랍고 화창한 바람</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
+          <t>명지바람</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>의미_바람</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
           <t>합성어</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>복합어</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5757,20 +5736,24 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>치솟다</t>
+          <t>서쪽에서 부는 바람</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>의미_바람</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
           <t>파생어</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>복합어</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5778,20 +5761,24 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>고무신</t>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
+          <t>살바람</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>의미_바람</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
           <t>합성어</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>복합어</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5799,20 +5786,24 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>놀이</t>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>의미_바람</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
           <t>파생어</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>복합어</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5820,17 +5811,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>마침내</t>
+          <t>사기꾼에게 [당하다]</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>어휘적 피동</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>어휘적 피동 vs 통사적 피동</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -5841,17 +5832,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>봄내</t>
+          <t>사기꾼에게 이용[당하다]</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>통사적 피동</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>어휘적 피동 vs 통사적 피동</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -5862,17 +5853,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>여름내</t>
+          <t>[-다]</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -5883,17 +5874,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>저녁내</t>
+          <t>한다</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -5904,17 +5895,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>들장미</t>
+          <t>[-네]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -5925,17 +5916,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>들국화</t>
+          <t>하네</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -5946,17 +5937,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>끄덕이다</t>
+          <t>[-오]</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -5967,17 +5958,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>망설이다</t>
+          <t>하오</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -5988,17 +5979,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>반짝이다</t>
+          <t>[-(습)니다]</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -6009,17 +6000,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>한껏</t>
+          <t>합니다</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -6030,17 +6021,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>힘껏</t>
+          <t>[-아/어]</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -6051,17 +6042,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>눈치껏</t>
+          <t>가</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6072,17 +6063,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>정성껏</t>
+          <t>[-(아/어)요]</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6093,17 +6084,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>성의껏</t>
+          <t>가요</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -6114,17 +6105,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>지금껏</t>
+          <t>[-구나], [-어라]</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -6135,17 +6126,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>아직껏</t>
+          <t>춥구나, 추워라</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -6156,17 +6147,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>여태껏</t>
+          <t>[-구먼]</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -6177,17 +6168,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>진양조 장단</t>
+          <t>춥구먼</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>느린 장단</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>의미_장단</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -6198,17 +6189,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>휘몰이 장단</t>
+          <t>[-구려]</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>빠른 장단</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>의미_장단</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -6219,17 +6210,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[첫째], 우리말을 사랑해야 한다</t>
+          <t>춥구려</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>수사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -6240,17 +6231,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>신발은 [첫째]로 발이 편안해야 한다</t>
+          <t>[-군/어]</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -6261,17 +6252,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[첫째]가 벌써 중학생이다</t>
+          <t>춥군, 추워</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -6282,17 +6273,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>둘에 셋을 더하면 [다섯]이다</t>
+          <t>[-군요]</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>수사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -6303,17 +6294,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[내일]이 내 생일이다</t>
+          <t>춥군요</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -6324,17 +6315,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[내일]에 대한 기대</t>
+          <t>[-느냐?], [-니?], [-지?]</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -6345,17 +6336,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>그는 [스스로]를 속이고 있다</t>
+          <t>하니?</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -6366,17 +6357,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>가진 것은 이것[뿐]이다</t>
+          <t>[-냐?], [-는가?]</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -6387,17 +6378,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>소문으로만 들었을 [뿐]이네</t>
+          <t>하나?, 하는가?</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>의존명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -6408,17 +6399,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>집이 대궐[만큼] 크다</t>
+          <t>[-오?]</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -6429,17 +6420,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>노력한 [만큼] 대가를 얻다</t>
+          <t>하오?</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>의존명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -6450,17 +6441,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>큰 것은 근 것[대로] 따로 모아 두다</t>
+          <t>[-습니다], [-읍니까?]</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -6471,17 +6462,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>집에 도착하는 [대로] 전화를 하다</t>
+          <t>합니까?</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>의존명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -6492,17 +6483,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>아직 [아무]도 안 왔다</t>
+          <t>[-아/어?]</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>대명사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -6513,17 +6504,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[그]는 참으로 좋은 사람이다</t>
+          <t>해?</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>대명사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -6534,17 +6525,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>나도 참을 [만큼] 참았다</t>
+          <t>[-(아/어)요?]</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>의존명사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -6555,17 +6546,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>나도 그 사람[만큼] 뛸 수 있다</t>
+          <t>해요?</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -6576,17 +6567,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>집에서[뿐]만 아니라 회사에서도 먹었다</t>
+          <t>[-(아/어)라]</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -6597,17 +6588,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>칼만 안 들었다 [뿐]이지 순 날강도다</t>
+          <t>보아라, 먹어라</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>의존명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -6618,17 +6609,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>아버지는 항상 소[같이] 일만 하신다</t>
+          <t>[-게]</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -6639,17 +6630,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>내가 너[보다] 크다</t>
+          <t>보게, 먹게</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -6660,17 +6651,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>감기 걸린 사람이 [한둘]이 아니다</t>
+          <t>[-오], [-구려]</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -6681,17 +6672,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>학교에서 재미있는 노래를 배웠어[요]</t>
+          <t>보오, 먹구려</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>조사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -6702,17 +6693,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>그날 회의에는 회원이 [여남은]밖에 모이지 않았다</t>
+          <t>[-(으)십시오]</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>수사</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>품사_체언_관계언_독립언</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -6723,17 +6714,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>마음이나 생각 따위가 잘못 들다</t>
+          <t>보십시오</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>빗들다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -6744,17 +6735,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다</t>
+          <t>[-아/어], [-지]</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>빗먹다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6765,17 +6756,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>보통의 이치에서 벗어나 막되고 상스럽다</t>
+          <t>먹어, 먹지</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>상없다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -6786,17 +6777,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>지나치게 치켜세우다</t>
+          <t>[-(아/어)요], [-지요]</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>치살리다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -6807,17 +6798,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>자세히 모르고 대강 또는 반쯤만 알다</t>
+          <t>먹어요, 먹지요</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>데알다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -6828,17 +6819,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>마음을 높고 여유 있게 지내다</t>
+          <t>[-자]</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>오금을 펴다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -6849,17 +6840,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>(사람이) 직접 말을 하지 않고 둘러서 말을 하여 짐작하게 하다</t>
+          <t>하자</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>변죽을 울리다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -6870,17 +6861,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>(사람이) 그날 장사, 또는 영업 시작 후 처음으로 물건을 팔다</t>
+          <t>[-세]</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>마수를 걸다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -6891,17 +6882,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>괴롭거나 어려운 상황을 벗어나느라고 진땀을 빼거나, 그것에 거의 질려 버리다.</t>
+          <t>하세</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>학을 떼다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -6912,17 +6903,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>하는 짓 따위가 잘고 더러운 데가 있다</t>
+          <t>[-ㅂ시다]</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>칙살스럽다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -6933,17 +6924,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>마음에 마땅찮아 혀를 차는 소리를 자꾸 내다</t>
+          <t>합시다</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>끌끌대다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -6954,17 +6945,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>몸이 둔하고 느리게 자꾸 움직인다</t>
+          <t>[-시지요]</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>굼적대다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -6975,17 +6966,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>음식 따위를 한꺼번에 입에 많이 넣고 잇따라 조금씩 씹다</t>
+          <t>하시지요</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>꼬약대다</t>
+          <t>격식체</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -6996,17 +6987,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>벌레가 기어가는 것처럼 살갗에 간지럽고 자릿한 느낌에 자꾸 들다</t>
+          <t>[-아/어]</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>가닐대다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -7017,17 +7008,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>팔다리를 쭉 펴다. 남의 눈치를 살피지 아니하고 떳떳하게 기를 펴다</t>
+          <t>해</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>활개를 펴다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -7038,17 +7029,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>일하는 동작이 매우 굼뜨다</t>
+          <t>[-(아/어)요]</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>손이 뜨다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -7059,17 +7050,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>인색하다</t>
+          <t>해요</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>손이 맑다</t>
+          <t>비격식체</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>문법_종결형 격식 판단</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -7080,17 +7071,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>겉으로는 수그러진 듯하나 속에는 반항하는 마음이 있다</t>
+          <t>진양조 장단</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>속을 달다</t>
+          <t>느린 장단</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>의미_장단</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -7101,17 +7092,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>좋지 아니한 위장의 상태를 좀 편안하게 만들다</t>
+          <t>휘몰이 장단</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>속을 달래다</t>
+          <t>빠른 장단</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>의미_장단</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -7122,17 +7113,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>강아지 따위가 걸음을 걷기 시작하다</t>
+          <t>아주 익숙하여 버릇이 되다</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>발을 타다</t>
+          <t>입에 붙다</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>의미_동사</t>
+          <t>의미_입</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -7143,586 +7134,586 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
+          <t>음식을 심하게 가리거나 적게 먹다</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>입이 밭다 / 입이 짧다</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>의미_입</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>말이 확실하고 실속이 있다</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>입이 여물다</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>의미_입</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>못마땅하여 기분이 언짢다</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>입이 쓰다</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>의미_입</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>의미_입</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>[-시-], [께서], [-님], 진지, 계시다, 잡수시다</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>주체 높임법</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>높임법 구분</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>께(조사), 모시다, 드리다, 뵙다, 어쭙다</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>객체 높임법</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>높임법 구분</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>종결어미로 표현</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>상대 높임법</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>높임법 구분</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>마음이나 생각 따위가 잘못 들다</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>빗들다</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>빗먹다</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>보통의 이치에서 벗어나 막되고 상스럽다</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>상없다</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>지나치게 치켜세우다</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>치살리다</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>자세히 모르고 대강 또는 반쯤만 알다</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>데알다</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>마음을 높고 여유 있게 지내다</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>오금을 펴다</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>(사람이) 직접 말을 하지 않고 둘러서 말을 하여 짐작하게 하다</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>변죽을 울리다</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>(사람이) 그날 장사, 또는 영업 시작 후 처음으로 물건을 팔다</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>마수를 걸다</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>괴롭거나 어려운 상황을 벗어나느라고 진땀을 빼거나, 그것에 거의 질려 버리다.</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>학을 떼다</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>하는 짓 따위가 잘고 더러운 데가 있다</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>칙살스럽다</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>마음에 마땅찮아 혀를 차는 소리를 자꾸 내다</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>끌끌대다</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>몸이 둔하고 느리게 자꾸 움직인다</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>굼적대다</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>음식 따위를 한꺼번에 입에 많이 넣고 잇따라 조금씩 씹다</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>꼬약대다</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>벌레가 기어가는 것처럼 살갗에 간지럽고 자릿한 느낌에 자꾸 들다</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>가닐대다</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>팔다리를 쭉 펴다. 남의 눈치를 살피지 아니하고 떳떳하게 기를 펴다</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>활개를 펴다</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>일하는 동작이 매우 굼뜨다</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>손이 뜨다</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>인색하다</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>손이 맑다</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>겉으로는 수그러진 듯하나 속에는 반항하는 마음이 있다</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>속을 달다</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>좋지 아니한 위장의 상태를 좀 편안하게 만들다</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>속을 달래다</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>강아지 따위가 걸음을 걷기 시작하다</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>발을 타다</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
           <t>1. 여자의 긴 머리를 두 갈래로 땋아 엇바꾸어 양쪽 귀 뒤로 돌려서 이마 위쪽에 한데 틀어 얹다.
 2. 어린 기생이 정식으로 기생이 되어 머리를 쪽 찌다.
 3. 여자가 시집을 가다.</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>머리를 올리다</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>의미_동사</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>창피를 당해 얼굴을 들고 다닐 수 없게 되다</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>코를 싸쥐다</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>의미_동사</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>기회가 완전히 무르익다</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>꼭지가 무르다</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>의미_동사</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>재산이나 자원 따위가 매우 많고 풍족하다</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>가멸차다</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>의미_동사</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>샅샅이 톺아 나가면서 살피다</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>톺아보다</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>의미_동사</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>[아니]! 이디 가겠단 말이냐</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>감탄사</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>품사_품사없음</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>그것은 사과이[요], 저것은 딸기이다</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>품사없음(어미)</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>품사_품사없음</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>[-다]</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>해라체</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>한다</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>해라체</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>[-네]</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>하게체</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>하네</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>하게체</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>[-오]</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>하오체</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>하오</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>하오체</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>[-(습)니다]</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>하십시오체</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>합니다</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>하십시오체</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>[-아/어]</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>해체</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>가</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>해체</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>[-(아/어)요]</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>해요체</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>가요</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>해요체</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>[-구나], [-어라]</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>해라체</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>춥구나, 추워라</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>해라체</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>[-구먼]</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>하게체</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>춥구먼</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>하게체</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>[-구려]</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>하오체</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>춥구려</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>하오체</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>[-군/어]</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>해체</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>춥군, 추워</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>해체</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>[-군요]</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>해요체</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>문법_종결형 구분</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -7733,17 +7724,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>춥군요</t>
+          <t>창피를 당해 얼굴을 들고 다닐 수 없게 되다</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>코를 싸쥐다</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>의미_동사</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -7754,17 +7745,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[-느냐?], [-니?], [-지?]</t>
+          <t>기회가 완전히 무르익다</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>해라체</t>
+          <t>꼭지가 무르다</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>의미_동사</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -7775,17 +7766,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>하니?</t>
+          <t>재산이나 자원 따위가 매우 많고 풍족하다</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>해라체</t>
+          <t>가멸차다</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>의미_동사</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -7796,17 +7787,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[-냐?], [-는가?]</t>
+          <t>샅샅이 톺아 나가면서 살피다</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>하게체</t>
+          <t>톺아보다</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>의미_동사</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -7817,17 +7808,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>하나?, 하는가?</t>
+          <t>[첫째], 우리말을 사랑해야 한다</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>하게체</t>
+          <t>수사</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -7838,17 +7829,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[-오?]</t>
+          <t>신발은 [첫째]로 발이 편안해야 한다</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>하오체</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -7859,17 +7850,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>하오?</t>
+          <t>[첫째]가 벌써 중학생이다</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>하오체</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -7880,17 +7871,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[-습니다], [-읍니까?]</t>
+          <t>둘에 셋을 더하면 [다섯]이다</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>하십시오체</t>
+          <t>수사</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -7901,17 +7892,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>합니까?</t>
+          <t>[내일]이 내 생일이다</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>하십시오체</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -7922,17 +7913,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>[-아/어?]</t>
+          <t>[내일]에 대한 기대</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>해체</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -7943,17 +7934,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>해?</t>
+          <t>그는 [스스로]를 속이고 있다</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>해체</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -7964,17 +7955,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[-(아/어)요?]</t>
+          <t>가진 것은 이것[뿐]이다</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -7985,17 +7976,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>해요?</t>
+          <t>소문으로만 들었을 [뿐]이네</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>의존명사</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -8006,17 +7997,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[-(아/어)라]</t>
+          <t>집이 대궐[만큼] 크다</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>해라체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -8027,17 +8018,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>보아라, 먹어라</t>
+          <t>노력한 [만큼] 대가를 얻다</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>해라체</t>
+          <t>의존명사</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -8048,17 +8039,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[-게]</t>
+          <t>큰 것은 근 것[대로] 따로 모아 두다</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>하게체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
@@ -8069,17 +8060,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>보게, 먹게</t>
+          <t>집에 도착하는 [대로] 전화를 하다</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>하게체</t>
+          <t>의존명사</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -8090,17 +8081,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[-오], [-구려]</t>
+          <t>아직 [아무]도 안 왔다</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>하오체</t>
+          <t>대명사</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -8111,17 +8102,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>보오, 먹구려</t>
+          <t>[그]는 참으로 좋은 사람이다</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>하오체</t>
+          <t>대명사</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -8132,17 +8123,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[-(으)십시오]</t>
+          <t>나도 참을 [만큼] 참았다</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>하십시오체</t>
+          <t>의존명사</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -8153,17 +8144,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>보십시오</t>
+          <t>나도 그 사람[만큼] 뛸 수 있다</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>하십시오체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -8174,17 +8165,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>[-아/어], [-지]</t>
+          <t>집에서[뿐]만 아니라 회사에서도 먹었다</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>해체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -8195,17 +8186,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>먹어, 먹지</t>
+          <t>칼만 안 들었다 [뿐]이지 순 날강도다</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>해체</t>
+          <t>의존명사</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -8216,17 +8207,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[-(아/어)요], [-지요]</t>
+          <t>아버지는 항상 소[같이] 일만 하신다</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
@@ -8237,17 +8228,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>먹어요, 먹지요</t>
+          <t>내가 너[보다] 크다</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -8258,17 +8249,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[-자]</t>
+          <t>감기 걸린 사람이 [한둘]이 아니다</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>해라체</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -8279,17 +8270,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>하자</t>
+          <t>학교에서 재미있는 노래를 배웠어[요]</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>해라체</t>
+          <t>조사</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -8300,17 +8291,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[-세]</t>
+          <t>그날 회의에는 회원이 [여남은]밖에 모이지 않았다</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>하게체</t>
+          <t>수사</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>품사_체언_관계언_독립언</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -8321,17 +8312,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>하세</t>
+          <t>인사말/인삿말</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>하게체</t>
+          <t>사이시옷 X</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -8342,17 +8333,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[-ㅂ시다]</t>
+          <t>머리말/머릿말</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>하오체</t>
+          <t>사이시옷 X</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>
@@ -8363,17 +8354,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>합시다</t>
+          <t>꼬리말/꼬릿말</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>하오체</t>
+          <t>사이시옷 X</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
@@ -8384,17 +8375,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[-시지요]</t>
+          <t>예사말/예삿말</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>하십시오체</t>
+          <t>사이시옷 X</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
@@ -8405,17 +8396,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>하시지요</t>
+          <t>노래말/노랫말</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>하십시오체</t>
+          <t>사이시옷 O</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
@@ -8426,17 +8417,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>[-아/어]</t>
+          <t>혼자말/혼잣말</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>해체</t>
+          <t>사이시옷 O</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -8447,17 +8438,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>해</t>
+          <t>존대말/존댓말</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>해체</t>
+          <t>사이시옷 O</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
@@ -8468,17 +8459,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[-(아/어)요]</t>
+          <t>혼사말/혼삿말</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>사이시옷 O</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E382" t="inlineStr"/>
@@ -8489,17 +8480,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>해요</t>
+          <t>본디말/본딧말</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>해요체</t>
+          <t>사이시옷 O</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>문법_종결형 구분</t>
+          <t>사이시옷</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -8510,17 +8501,18 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>아주 익숙하여 버릇이 되다</t>
+          <t>일의 진행 과정에서 가장 중요한 대목
+그는 줄목을 무사히 넘겼다</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>입에 붙다</t>
+          <t>줄목</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>의미_입</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -8531,17 +8523,18 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>음식을 심하게 가리거나 적게 먹다</t>
+          <t>이미 내디뎌 걷고 있는 그대로의 걸음
+그 사람들고 선걸음으로 그리 내달았다</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>입이 밭다 / 입이 짧다</t>
+          <t>선걸음</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>의미_입</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -8552,17 +8545,18 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>말이 확실하고 실속이 있다</t>
+          <t>물건 따위를 잘 정리하거나 간수함
+겨울 동안 갈무리를 했던 산나물을 팔았다</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>입이 여물다</t>
+          <t>갈무리</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>의미_입</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -8573,17 +8567,18 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>못마땅하여 기분이 언짢다</t>
+          <t>옷을 입고 매만진 맵시
+그는 인물보다 맨드리가 쓰레기꾼 축에 섞이기는 아까웠다</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>입이 쓰다</t>
+          <t>맨드리</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>의미_입</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -8594,17 +8589,18 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+          <t>음식을 먹지 않음
+그녀는 잔입으로 출근 시간이 되기만을 기다렸다</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>입이 되다</t>
+          <t>잔입</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>의미_입</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -8615,17 +8611,18 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>매월 [첫째] 주 화요일에 쉰다</t>
+          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
+2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>만수받이</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -8636,17 +8633,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>쟁반에 사과 [다섯] 개가 있다</t>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>윤똑똑이</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E390" t="inlineStr"/>
@@ -8657,17 +8654,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>얼굴이 [다른] 아버지와 아들</t>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>트레바리</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -8678,17 +8675,18 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>[다른] 생각 말고 공부나 해라</t>
+          <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
+2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>오그랑이</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -8699,17 +8697,17 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>생김새가 [어떤] 사람이니?</t>
+          <t>물건</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>황후</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -8720,17 +8718,17 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>[어떤] 옷이 맘에 드니?</t>
+          <t>게</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>동난지이</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -8741,17 +8739,17 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>오늘은 이만하고 [내일] 다시 시작합시다</t>
+          <t>장사꾼</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>쟝스</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -8762,17 +8760,17 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[스스로] 할 수 있는 일을 남에게 미루지 마라</t>
+          <t>다리</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>아리</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -8783,17 +8781,18 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>그는 [스스로] 입대하였다</t>
+          <t>1. 민속 땅, 돌, 나무 따위를 잘못 건드려 지신(地神)을 화나게 하여 재앙을 받는 일. 또는 그 재앙.
+2. 건드려서는 안 될 것을 공연히 건드려서 스스로 걱정이나 해를 입음. 또는 그 걱정이나 피해를 비유적으로 이르는 말.</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>동티</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -8804,17 +8803,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>벌써 날이 [밝다]</t>
+          <t>가스 상태의 빛나는 긴 꼬리를 끌고 태양을 초점으로 긴 타원이나 포물선에 가까운 궤도를 그리며 운행하는 천체. 핵, 코마, 꼬리 부분으로 이루어져 있다.</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>살별</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -8825,17 +8824,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>조명이 [밝다]</t>
+          <t>‘유성’을 일상적으로 이르는 말.</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>별똥별</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -8846,17 +8845,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>철수는 요즘 매일 키가 [크다]</t>
+          <t>중심 별의 강한 인력의 영향으로 타원 궤도를 그리며 중심 별의 주위를 도는 천체. 스스로 빛을 내지 못하고, 중심 별의 빛을 받아 반사한다. 태양계에는 수성, 금성, 지구, 화성, 목성, 토성, 천왕성, 해왕성의 여덟 개 행성이 있다.</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>떠돌이별</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E400" t="inlineStr"/>
@@ -8867,17 +8866,18 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>그는 발이 무척 [크다]</t>
+          <t>1. ‘금성’을 일상적으로 이르는 말.
+2. 장래에 큰 발전을 이룩할 만한 사람을 비유적으로 이르는 말.</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>샛별</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E401" t="inlineStr"/>
@@ -8888,17 +8888,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>언니는 토요일에 항상 집에 [있다]</t>
+          <t>부유한 집에서 자라나 세상의 어려운 일을 잘 모르는 사람을 비유적으로 이르는 말.</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>궁도련님</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E402" t="inlineStr"/>
@@ -8909,17 +8909,17 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>지갑이 집에 [있다]</t>
+          <t>책상 앞에 앉아 글공부만 하여 세상일을 잘 모르는 사람을 낮잡아 이르는 말.</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>책상물림</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -8930,17 +8930,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[아무] 사람이나 만나서는 안 된다</t>
+          <t>온갖 어려운 일을 겪어서 아주 야무진 사람을 비유적으로 이르는 말.</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>대갈마치</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -8951,17 +8951,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[그] 책 이리 좀 줘 봐</t>
+          <t>많은 힘을 들여 애를 씀</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>적공</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -8972,17 +8972,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>바람이 [아니] 분다</t>
+          <t>더할 나위 없이 매우 가난함</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>철빈</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E406" t="inlineStr"/>
@@ -8993,17 +8993,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>친구와 [같이] 영화관에 갔다</t>
+          <t>늙은 뒤의 운수나 처지</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>후분</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E407" t="inlineStr"/>
@@ -9014,17 +9014,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[보다] 빠르게 뛰다</t>
+          <t>멀리멀리</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>머리곰</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E408" t="inlineStr"/>
@@ -9035,17 +9035,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[많이] 먹다</t>
+          <t>바다 위에 낀 짙은 안개</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>해미</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E409" t="inlineStr"/>
@@ -9056,17 +9056,17 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>바람이 [가볍게] 부는 날씨에 기분이 좋았다</t>
+          <t>사기그릇을 만드는 돌림판의 밑구멍에 끼우는 사기로 된 고리</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>갓모</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E410" t="inlineStr"/>
@@ -9077,17 +9077,17 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>소인은 [없이] 사는 것을 부끄럽게 여긴다</t>
+          <t>일을 꾸려 나가는 사람을 곁에서 거들어 도와줌</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>봉죽</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E411" t="inlineStr"/>
@@ -9098,17 +9098,17 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>반죽이 [되게] 묽어 국수 만들기가 어렵다</t>
+          <t>자식이 커서 부모를 봉양하는 일</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>안갚음</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E412" t="inlineStr"/>
@@ -9119,17 +9119,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>그들은 [여남은] 평이 되는 공간에 방을 꾸미고 살고 있었다</t>
+          <t>남이 말하는 앞에서 덩달아 참견하는 말</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>말곁</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -9140,17 +9140,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>[오랜] 가뭄 끝에 비가 내렸다</t>
+          <t>떼 지어 으르고 협박함</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>관형사</t>
+          <t>울력성당</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>품사_수식언_용언</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -9161,17 +9161,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>높임의 호격조사</t>
+          <t>마음에도 없이 겉치레로 하는 말</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>입에 발린 소리</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E415" t="inlineStr"/>
@@ -9182,17 +9182,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>강조 접미사</t>
+          <t>담은 것이 그릇에 넘치도록 많이</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>곰</t>
+          <t>안다미로</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E416" t="inlineStr"/>
@@ -9203,17 +9203,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>주체 높임 선어말 어미</t>
+          <t>나무나 풀에 내려 눈처럼 된 서리</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>샤</t>
+          <t>상고대</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>의미_명사</t>
         </is>
       </c>
       <c r="E417" t="inlineStr"/>
@@ -9224,17 +9224,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>~할까 두렵다</t>
+          <t>금강산 그늘이 관동 팔십 리</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>ㄹ셰라</t>
+          <t>훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E418" t="inlineStr"/>
@@ -9245,17 +9245,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>모습이</t>
+          <t>서 발 막대 거칠 것 없다</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>즈이</t>
+          <t>가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E419" t="inlineStr"/>
@@ -9266,17 +9266,17 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>저물까 두렵다</t>
+          <t>무른 땅에 말뚝 박기</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>졈그롤셰라</t>
+          <t>매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E420" t="inlineStr"/>
@@ -9287,17 +9287,17 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>미워할 사람도 사랑할 사람도 없이</t>
+          <t>우물에 가 숭늉 찾는다</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>믜리도 괴리도 없이</t>
+          <t>일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E421" t="inlineStr"/>
@@ -9308,17 +9308,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>드로라</t>
+          <t>가난한 집 족보 자랑하기다</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>듣노라</t>
+          <t>실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E422" t="inlineStr"/>
@@ -9329,17 +9329,17 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>님의손되</t>
+          <t>사또 덕분에 나팔 분다</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>임에게</t>
+          <t>남의 덕으로 분에 넘치는 행세를 한다</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E423" t="inlineStr"/>
@@ -9350,20 +9350,356 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>갈회</t>
+          <t>아쉬운 감 유월부터 한다</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>가려</t>
+          <t>돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>의미_고전</t>
+          <t>속담</t>
         </is>
       </c>
       <c r="E424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>하늘 보고 손가락질한다(주먹질한다)</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>무모하게 시비를 걸며 욕하다. 능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>불감청이언정 고소원이라</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>가랑이가 찟어지다</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>동풍 안개 속에 수수 잎 꼬이듯</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>심술이 사납고 성질이 순순하지 못함</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>동풍에 원두한의 탄식</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>동풍에 곡식이 병난다</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>패랭이에 숟가락 꽂고 산다</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>태산 명동에 서일필</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>터진 방앗공이에 보리알 끼듯 하였다</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>보리누름까지 세배한다</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>말 같지 않은 말은 귀가 없다</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>남의 말이라면 쌍지팡이 짚고 나선다</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>말 안 하면 귀신도 모른다</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>남의 말도 석 달</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>소문은 시일이 지나면 흐지부지 없어지고 만다는 말.</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>말 가는 데 소도 간다</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>남이 하는 일이면 저도 노력하여 능히 할 수 있다.</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>조금이라도 이용 가치가 있을까 하여 보잘것없는 것을 두고두고 되풀이하여 이용함</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">노루 때린 막대기 세 번이나 국 끓여 먹는다 </t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
@@ -6161,7 +6161,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6501,7 +6501,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -7393,7 +7393,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
@@ -7793,7 +7793,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377">
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378">
@@ -8139,7 +8139,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
@@ -8319,7 +8319,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
@@ -8559,7 +8559,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
@@ -8639,7 +8639,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -8839,7 +8839,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -8859,7 +8859,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9219,7 +9219,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
@@ -9239,7 +9239,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -9439,7 +9439,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453">
@@ -9939,7 +9939,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
@@ -10119,7 +10119,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483">
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
@@ -10241,7 +10241,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498">
@@ -10681,7 +10681,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520">
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
@@ -11181,7 +11181,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
@@ -11481,7 +11481,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
@@ -11561,7 +11561,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555">
@@ -11641,7 +11641,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563">
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564">
@@ -11801,7 +11801,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
@@ -11881,7 +11881,7 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571">
@@ -11981,7 +11981,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576">
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579">
@@ -12061,7 +12061,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="595">
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604">
@@ -12581,7 +12581,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606">
@@ -12681,7 +12681,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="611">
@@ -12801,7 +12801,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620">
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628">
@@ -13081,7 +13081,7 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638">
@@ -13261,7 +13261,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640">
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656">
@@ -13661,7 +13661,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -13679,7 +13679,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="661">
@@ -13715,7 +13715,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663">
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664">
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
@@ -14133,7 +14133,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -14193,7 +14193,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688">
@@ -14233,7 +14233,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -14453,7 +14453,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701">
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="704">
@@ -14533,7 +14533,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705">
@@ -14633,7 +14633,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="710">
@@ -14693,7 +14693,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713">
@@ -14973,7 +14973,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727">
@@ -14993,7 +14993,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="728">
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -15134,7 +15134,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735">
@@ -15174,7 +15174,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="737">
@@ -15194,7 +15194,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -15234,7 +15234,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740">
@@ -15354,7 +15354,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="746">
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="751">
@@ -15494,7 +15494,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -15554,7 +15554,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -15674,7 +15674,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="762">
@@ -15694,7 +15694,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763">
@@ -15794,7 +15794,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -15854,7 +15854,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771">
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -16037,7 +16037,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780">
@@ -16059,7 +16059,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -16081,7 +16081,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="782">
@@ -16103,7 +16103,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="783">
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="784">
@@ -16191,7 +16191,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787">
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790">
@@ -16367,7 +16367,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795">
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -16455,7 +16455,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799">
@@ -16497,7 +16497,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801">
@@ -16517,7 +16517,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806">
@@ -16657,7 +16657,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809">
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812">
@@ -16737,7 +16737,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813">
@@ -16757,7 +16757,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814">
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="825">
@@ -16997,7 +16997,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -17017,7 +17017,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827">
@@ -17057,7 +17057,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829">
@@ -17097,7 +17097,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -17137,7 +17137,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="833">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835">

--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -5481,7 +5481,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6841,7 +6841,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8759,7 +8759,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8819,7 +8819,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -9499,7 +9499,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
@@ -9959,7 +9959,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
@@ -10019,7 +10019,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -10441,7 +10441,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
@@ -10461,7 +10461,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500">
@@ -10501,7 +10501,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>88세</t>
+          <t>80세</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523">
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528">
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -11541,7 +11541,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -11941,7 +11941,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="574">
@@ -12001,7 +12001,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
@@ -12281,7 +12281,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -12461,7 +12461,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600">
@@ -12561,7 +12561,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="605">
@@ -12801,7 +12801,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="617">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -13041,7 +13041,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629">
@@ -13081,7 +13081,7 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633">
@@ -13201,7 +13201,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="637">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643">
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -13401,7 +13401,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="653">
@@ -13661,7 +13661,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="667">
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="671">
@@ -13877,7 +13877,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672">
@@ -13895,7 +13895,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="673">
@@ -13993,7 +13993,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678">
@@ -14233,7 +14233,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="724">
@@ -14933,7 +14933,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="725">
@@ -15194,7 +15194,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -15254,7 +15254,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741">
@@ -15394,7 +15394,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -15414,7 +15414,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749">
@@ -15474,7 +15474,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="752">
@@ -15534,7 +15534,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755">
@@ -15594,7 +15594,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760">
@@ -15714,7 +15714,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="764">
@@ -15754,7 +15754,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -15774,7 +15774,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -15794,7 +15794,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -15834,7 +15834,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770">
@@ -15894,7 +15894,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773">
@@ -15977,7 +15977,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777">
@@ -16059,7 +16059,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781">
@@ -16279,7 +16279,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="791">
@@ -16517,7 +16517,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16537,7 +16537,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16637,7 +16637,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808">
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815">
@@ -16797,7 +16797,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830">
@@ -17117,7 +17117,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="835">
@@ -17197,7 +17197,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="836">
@@ -17257,7 +17257,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -17297,7 +17297,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="841">

--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1331"/>
+  <dimension ref="A1:D1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27148,6 +27148,726 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>쓸데없는 말을 지껄이기 좋아하는 수다스러운 사람. 말싸움을 잘하는 사람</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>가납사니</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>간사스럽게 몹시 아양을 떠는 사람을 놀림조로 이르는 말</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>간살쟁이</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>음식을 많이 먹지 못하는 사람. 몸이 약하여서 늘 병치레를 하는 사람</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>고삭부리</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>얼마 오래지 아니함</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>미구</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>설을 쇰</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>과세</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>노루 때린 막대기 세 번이나 국 끓여 먹는다</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>조금이라도 이용 가치가 있을까 하여 보잘것없는 것을 두고두고 되풀이하여 이용함</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>비단옷 입고 밤길 걷기</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>생색이 나지 않는 공연한 일에 애쓰고도 보람이 없는 경우</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>솔밭에 가서 고기 낚기</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>도저히 불가능한 일을 하려고 애쓰는 어리석음</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>원님 덕에 나팔 분다</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>남의 덕으로 당치도 아니한 행세를 하는 것</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>굽은 나무가 선산을 지킨다</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>쓸모없어 보이는 것이 도리어 제구실을 하게 됨</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>떡도 떡 같이 않은 옥수수떡이 배 속을 괴롭힌다</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>하찮은 것이 말썽을 부린다</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>새 오리 장가가면 헌 오리 나도 한다</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>남이 하는 대로 무턱대고 자기도 하겠다고 따라다나서는 주책없는 행동을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>거지 조상 안 가진 부자 없고 부자 조상 안 가진 거지 없다</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>빈부귀천은 타고나는 것이 아님을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>똥 벌레가 제 몸 더러운 줄 모른다</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>자신의 결점이나 잘못을 모른다</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>실없는 말이 송사 간다</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>무심하게 한 말 때문에 큰 소동이 벌어질 수도 있음을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>소더러 한 말은 안 나도 처더러 한 말은 난다</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>아무리 다정한 사이라도 숨길 말은 하면 안된다는 말</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>말을 보태고 떡은 뗀다</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>말은 퍼질수록 더 보태어지고, 음식은 이 손 저 손으로 돌아가는 동안 없어지는 것이라는 말</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>자루 속의 송곳</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>숨기려 해도 숨길 수 없고 그 정체가 드러나는 경우</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>가는 날이 장날</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>뜻하지 않은 일을 공교롭게 당함</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>기둥보다 서까래가 더 굵다</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>주(主)가 되는 것과 그에 따르는 것이 뒤바뀌어 사리에 어긋남</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>밤나무에서 은행이 열기를 바란다</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>불가능한 일을 바라는 경우</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>속담</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>재산이나 자원 따위가 매우 많고 풍족하다</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>가멸차다, 가멸다</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>무뚝뚝한 성미로 화를 내다</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>불뚝하다</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>아쉬운 때에 요긴하게 쓰게 되어 보람이 있다. 영광스러워 체면이 서는 듯하다</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>생광스럽다</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>생김새나 됨됨이가 완전하게 이루어지지 못하여 못나게 생기다</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>데생기다</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>태도나 성질이 부드럽고 친절하다. 꼼꼼하고 자세하다</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>곰살궂다</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>미지칭 대명사</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[누구]세요? </t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">날짜가 [언제]야? </t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">장소가 [어디]야? </t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">그게 [무엇]이니? </t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>[누구]나 환영입니다</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>부정칭 대명사 | 정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>[언제]든지 물어봐</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>부정칭 대명사 | 정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>[무엇]이든 물어보세요</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>부정칭 대명사 | 정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 vs 부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>중요하게 여길 만한 정도로</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>대수로이</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>의미_부사</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>우쭐대고 자랑하듯이</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>여봐란듯이</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>의미_부사</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>보이던 것이 전혀 보이지 않아 찾을 곳이 감감하게. 눈에 띄지 않게 감쪽같이</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>가뭇없이</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>의미_부사</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>모자람 없이 온전하게. 고요하고 쓸쓸하게</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>오롯이</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>의미_부사</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>우쭐대고 자랑하듯이</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>여봐란듯이//여보란듯이</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -6201,7 +6201,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -11861,7 +11861,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="617">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625">
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633">
@@ -14362,7 +14362,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695">
@@ -15407,7 +15407,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747">
@@ -16707,7 +16707,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812">
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="D1130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1131">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1153">
@@ -24348,7 +24348,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1194">
@@ -26445,7 +26445,7 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -27164,7 +27164,9 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D1332" t="inlineStr"/>
+      <c r="D1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -27182,7 +27184,9 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D1333" t="inlineStr"/>
+      <c r="D1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
@@ -27200,7 +27204,9 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D1334" t="inlineStr"/>
+      <c r="D1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
@@ -27218,7 +27224,9 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D1335" t="inlineStr"/>
+      <c r="D1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -27236,7 +27244,9 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D1336" t="inlineStr"/>
+      <c r="D1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
@@ -27254,7 +27264,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1337" t="inlineStr"/>
+      <c r="D1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
@@ -27272,7 +27284,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1338" t="inlineStr"/>
+      <c r="D1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
@@ -27290,7 +27304,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1339" t="inlineStr"/>
+      <c r="D1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
@@ -27308,7 +27324,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1340" t="inlineStr"/>
+      <c r="D1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
@@ -27326,7 +27344,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1341" t="inlineStr"/>
+      <c r="D1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
@@ -27344,7 +27364,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1342" t="inlineStr"/>
+      <c r="D1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
@@ -27362,7 +27384,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1343" t="inlineStr"/>
+      <c r="D1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
@@ -27380,7 +27404,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1344" t="inlineStr"/>
+      <c r="D1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
@@ -27398,7 +27424,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1345" t="inlineStr"/>
+      <c r="D1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
@@ -27416,7 +27444,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1346" t="inlineStr"/>
+      <c r="D1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
@@ -27434,7 +27464,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1347" t="inlineStr"/>
+      <c r="D1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
@@ -27452,7 +27484,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1348" t="inlineStr"/>
+      <c r="D1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
@@ -27470,7 +27504,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1349" t="inlineStr"/>
+      <c r="D1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
@@ -27488,7 +27524,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1350" t="inlineStr"/>
+      <c r="D1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
@@ -27506,7 +27544,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1351" t="inlineStr"/>
+      <c r="D1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
@@ -27524,7 +27564,9 @@
           <t>속담</t>
         </is>
       </c>
-      <c r="D1352" t="inlineStr"/>
+      <c r="D1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
@@ -27542,7 +27584,9 @@
           <t>의미_동사</t>
         </is>
       </c>
-      <c r="D1353" t="inlineStr"/>
+      <c r="D1353" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -27560,7 +27604,9 @@
           <t>의미_동사</t>
         </is>
       </c>
-      <c r="D1354" t="inlineStr"/>
+      <c r="D1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
@@ -27578,7 +27624,9 @@
           <t>의미_동사</t>
         </is>
       </c>
-      <c r="D1355" t="inlineStr"/>
+      <c r="D1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
@@ -27596,7 +27644,9 @@
           <t>의미_동사</t>
         </is>
       </c>
-      <c r="D1356" t="inlineStr"/>
+      <c r="D1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
@@ -27614,7 +27664,9 @@
           <t>의미_동사</t>
         </is>
       </c>
-      <c r="D1357" t="inlineStr"/>
+      <c r="D1357" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
@@ -27624,15 +27676,17 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>미지칭 대명사</t>
+          <t>미지칭 대명사//부정칭 대명사</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1358" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
@@ -27642,15 +27696,17 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>부정칭 대명사</t>
+          <t>부정칭 대명사//미지칭 대명사</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1359" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
@@ -27660,15 +27716,17 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+          <t>미지칭 대명사//부정칭 대명사</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1360" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1360" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
@@ -27678,15 +27736,17 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+          <t>미지칭 대명사//부정칭 대명사</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1361" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
@@ -27696,15 +27756,17 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+          <t>미지칭 대명사//부정칭 대명사</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1362" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
@@ -27714,15 +27776,17 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>미지칭 대명사 | 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+          <t>미지칭 대명사//부정칭 대명사</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1363" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
@@ -27732,15 +27796,17 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>부정칭 대명사 | 정해지지 아니한 대상</t>
+          <t>부정칭 대명사//미지칭 대명사</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1364" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
@@ -27750,15 +27816,17 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>부정칭 대명사 | 정해지지 아니한 대상</t>
+          <t>부정칭 대명사//미지칭 대명사</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1365" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
@@ -27768,15 +27836,17 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>부정칭 대명사 | 정해지지 아니한 대상</t>
+          <t>부정칭 대명사//미지칭 대명사</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>미지칭 대명사 vs 부정칭 대명사</t>
-        </is>
-      </c>
-      <c r="D1366" t="inlineStr"/>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="D1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
@@ -27794,7 +27864,9 @@
           <t>의미_부사</t>
         </is>
       </c>
-      <c r="D1367" t="inlineStr"/>
+      <c r="D1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
@@ -27812,7 +27884,9 @@
           <t>의미_부사</t>
         </is>
       </c>
-      <c r="D1368" t="inlineStr"/>
+      <c r="D1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
@@ -27830,7 +27904,9 @@
           <t>의미_부사</t>
         </is>
       </c>
-      <c r="D1369" t="inlineStr"/>
+      <c r="D1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
@@ -27848,7 +27924,9 @@
           <t>의미_부사</t>
         </is>
       </c>
-      <c r="D1370" t="inlineStr"/>
+      <c r="D1370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
@@ -27866,7 +27944,9 @@
           <t>기본</t>
         </is>
       </c>
-      <c r="D1371" t="inlineStr"/>
+      <c r="D1371" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_객관식.xlsx
+++ b/학습자료/단답형/국어_복습_객관식.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="2033">
   <si>
     <t>질문</t>
   </si>
@@ -6124,114 +6124,100 @@
   </si>
   <si>
     <t>옳은 것은? Chocolate</t>
+  </si>
+  <si>
+    <t>초콜릿//초콜렛</t>
+  </si>
+  <si>
+    <t>옳은 것은? Fanfare</t>
+  </si>
+  <si>
+    <t>팡파르//팡파레</t>
+  </si>
+  <si>
+    <t>그는 고향을 등지고 정처 없이 떠돌아다녔다</t>
+  </si>
+  <si>
+    <t>떠돌아다녔다//떠돌아 다녔다</t>
+  </si>
+  <si>
+    <t>잃어버린 물건을 찾겠다는 생각은 속절없는 짓이었다</t>
+  </si>
+  <si>
+    <t>속절없는//속절 없는</t>
+  </si>
+  <si>
+    <t>일이 얽히고설켜서 풀기가 어렵다</t>
+  </si>
+  <si>
+    <t>얽히고설켜서//얽히고 설켜서</t>
+  </si>
+  <si>
+    <t>나를 알아주는 사람은 너밖에 없다</t>
+  </si>
+  <si>
+    <t>너밖에//너 밖에</t>
+  </si>
+  <si>
+    <t>톱질</t>
+  </si>
+  <si>
+    <t>파생어//합성어</t>
+  </si>
+  <si>
+    <t>잡히다</t>
+  </si>
+  <si>
+    <t>군식구</t>
+  </si>
+  <si>
+    <t>되묻다</t>
+  </si>
+  <si>
+    <t>동갑내기</t>
+  </si>
+  <si>
+    <t>김치찌개</t>
+  </si>
+  <si>
+    <t>합성어//파생어</t>
+  </si>
+  <si>
+    <t>늙은이</t>
+  </si>
+  <si>
+    <t>작은아버지</t>
+  </si>
+  <si>
+    <t>옳은 것은? Barricade</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>초콜릿//초콜렛</t>
+    <t>바리케이드//바리케이트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기본</t>
+    <t>콘텐츠//컨텐츠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>옳은 것은? Fanfare</t>
+    <t>옳은 것은? Symposium</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팡파르//팡파레</t>
+    <t>옳은 것은? Contents</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기본</t>
+    <t>심포지엄//심포지움</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>떠돌아다녔다//떠돌아 다녔다</t>
+    <t>옳은 것은? Concept</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>그는 고향을 등지고 정처 없이 떠돌아다녔다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>잃어버린 물건을 찾겠다는 생각은 속절없는 짓이었다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속절없는//속절 없는</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일이 얽히고설켜서 풀기가 어렵다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얽히고설켜서//얽히고 설켜서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나를 알아주는 사람은 너밖에 없다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너밖에//너 밖에</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>톱질</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡히다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝내</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>군식구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>되묻다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동갑내기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치솟다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파생어//합성어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>늙은이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌보다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새해</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은아버지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>합성어//파생어</t>
+    <t>콘셉트//컨셉트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6620,18 +6606,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1447"/>
+  <dimension ref="A1:D1451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1443" sqref="B1443:C1447"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1452" sqref="A1452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="33.75" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6771,7 +6756,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6785,7 +6770,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -6799,7 +6784,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -6897,7 +6882,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6967,7 +6952,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -6981,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7037,7 +7022,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7233,7 +7218,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -7443,7 +7428,7 @@
         <v>97</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7471,7 +7456,7 @@
         <v>97</v>
       </c>
       <c r="D60" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -7569,7 +7554,7 @@
         <v>122</v>
       </c>
       <c r="D67" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -7737,7 +7722,7 @@
         <v>122</v>
       </c>
       <c r="D79" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -7849,7 +7834,7 @@
         <v>141</v>
       </c>
       <c r="D87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -8031,7 +8016,7 @@
         <v>141</v>
       </c>
       <c r="D100" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -8171,7 +8156,7 @@
         <v>170</v>
       </c>
       <c r="D110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -8255,7 +8240,7 @@
         <v>181</v>
       </c>
       <c r="D116" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -8549,7 +8534,7 @@
         <v>211</v>
       </c>
       <c r="D137" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -8633,7 +8618,7 @@
         <v>225</v>
       </c>
       <c r="D143" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -8661,7 +8646,7 @@
         <v>225</v>
       </c>
       <c r="D145" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -8675,7 +8660,7 @@
         <v>225</v>
       </c>
       <c r="D146" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -8703,7 +8688,7 @@
         <v>225</v>
       </c>
       <c r="D148" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -8745,7 +8730,7 @@
         <v>225</v>
       </c>
       <c r="D151" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -8773,7 +8758,7 @@
         <v>225</v>
       </c>
       <c r="D153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -8787,7 +8772,7 @@
         <v>225</v>
       </c>
       <c r="D154" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -8857,7 +8842,7 @@
         <v>245</v>
       </c>
       <c r="D159" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -9053,7 +9038,7 @@
         <v>245</v>
       </c>
       <c r="D173" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -9137,7 +9122,7 @@
         <v>245</v>
       </c>
       <c r="D179" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -9151,7 +9136,7 @@
         <v>245</v>
       </c>
       <c r="D180" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,7 +9346,7 @@
         <v>300</v>
       </c>
       <c r="D195" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -9375,7 +9360,7 @@
         <v>300</v>
       </c>
       <c r="D196" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -9893,7 +9878,7 @@
         <v>365</v>
       </c>
       <c r="D233" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -9963,7 +9948,7 @@
         <v>392</v>
       </c>
       <c r="D238" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -9991,7 +9976,7 @@
         <v>392</v>
       </c>
       <c r="D240" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -10033,7 +10018,7 @@
         <v>392</v>
       </c>
       <c r="D243" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -10453,7 +10438,7 @@
         <v>451</v>
       </c>
       <c r="D273" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -10579,7 +10564,7 @@
         <v>451</v>
       </c>
       <c r="D282" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -10593,7 +10578,7 @@
         <v>451</v>
       </c>
       <c r="D283" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -10691,7 +10676,7 @@
         <v>451</v>
       </c>
       <c r="D290" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -10789,7 +10774,7 @@
         <v>497</v>
       </c>
       <c r="D297" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -10845,7 +10830,7 @@
         <v>509</v>
       </c>
       <c r="D301" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -10901,7 +10886,7 @@
         <v>509</v>
       </c>
       <c r="D305" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -10985,7 +10970,7 @@
         <v>509</v>
       </c>
       <c r="D311" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -11013,7 +10998,7 @@
         <v>509</v>
       </c>
       <c r="D313" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -11167,7 +11152,7 @@
         <v>509</v>
       </c>
       <c r="D324" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -11363,7 +11348,7 @@
         <v>509</v>
       </c>
       <c r="D338" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -11699,7 +11684,7 @@
         <v>509</v>
       </c>
       <c r="D362" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -11783,7 +11768,7 @@
         <v>509</v>
       </c>
       <c r="D368" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -11797,7 +11782,7 @@
         <v>509</v>
       </c>
       <c r="D369" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -11993,7 +11978,7 @@
         <v>509</v>
       </c>
       <c r="D383" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -12091,7 +12076,7 @@
         <v>509</v>
       </c>
       <c r="D390" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -12525,7 +12510,7 @@
         <v>509</v>
       </c>
       <c r="D421" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -12819,7 +12804,7 @@
         <v>652</v>
       </c>
       <c r="D442" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -12833,7 +12818,7 @@
         <v>652</v>
       </c>
       <c r="D443" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -13253,7 +13238,7 @@
         <v>674</v>
       </c>
       <c r="D473" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -13351,7 +13336,7 @@
         <v>709</v>
       </c>
       <c r="D480" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -13477,7 +13462,7 @@
         <v>709</v>
       </c>
       <c r="D489" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -13743,7 +13728,7 @@
         <v>758</v>
       </c>
       <c r="D508" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -13771,7 +13756,7 @@
         <v>765</v>
       </c>
       <c r="D510" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -13785,7 +13770,7 @@
         <v>765</v>
       </c>
       <c r="D511" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -14247,7 +14232,7 @@
         <v>792</v>
       </c>
       <c r="D544" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -14653,7 +14638,7 @@
         <v>792</v>
       </c>
       <c r="D573" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -14765,7 +14750,7 @@
         <v>792</v>
       </c>
       <c r="D581" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -14919,7 +14904,7 @@
         <v>792</v>
       </c>
       <c r="D592" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -15073,7 +15058,7 @@
         <v>874</v>
       </c>
       <c r="D603" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -15129,7 +15114,7 @@
         <v>893</v>
       </c>
       <c r="D607" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -15185,7 +15170,7 @@
         <v>893</v>
       </c>
       <c r="D611" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -15339,7 +15324,7 @@
         <v>893</v>
       </c>
       <c r="D622" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
@@ -15451,7 +15436,7 @@
         <v>893</v>
       </c>
       <c r="D630" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -15619,7 +15604,7 @@
         <v>923</v>
       </c>
       <c r="D642" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -15661,7 +15646,7 @@
         <v>923</v>
       </c>
       <c r="D645" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
@@ -15689,7 +15674,7 @@
         <v>923</v>
       </c>
       <c r="D647" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -15857,7 +15842,7 @@
         <v>923</v>
       </c>
       <c r="D659" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -15969,7 +15954,7 @@
         <v>923</v>
       </c>
       <c r="D667" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
@@ -16081,7 +16066,7 @@
         <v>923</v>
       </c>
       <c r="D675" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
@@ -16249,7 +16234,7 @@
         <v>923</v>
       </c>
       <c r="D687" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
@@ -16277,7 +16262,7 @@
         <v>927</v>
       </c>
       <c r="D689" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
@@ -16403,7 +16388,7 @@
         <v>927</v>
       </c>
       <c r="D698" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
@@ -16613,7 +16598,7 @@
         <v>927</v>
       </c>
       <c r="D713" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
@@ -16725,7 +16710,7 @@
         <v>927</v>
       </c>
       <c r="D721" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
@@ -16893,7 +16878,7 @@
         <v>1002</v>
       </c>
       <c r="D733" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
@@ -16907,7 +16892,7 @@
         <v>1002</v>
       </c>
       <c r="D734" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
@@ -17103,7 +17088,7 @@
         <v>1038</v>
       </c>
       <c r="D748" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
@@ -17537,7 +17522,7 @@
         <v>1066</v>
       </c>
       <c r="D779" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
@@ -17663,7 +17648,7 @@
         <v>1066</v>
       </c>
       <c r="D788" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
@@ -17915,7 +17900,7 @@
         <v>1066</v>
       </c>
       <c r="D806" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
@@ -18041,7 +18026,7 @@
         <v>1066</v>
       </c>
       <c r="D815" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
@@ -18083,7 +18068,7 @@
         <v>1066</v>
       </c>
       <c r="D818" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
@@ -18097,7 +18082,7 @@
         <v>1066</v>
       </c>
       <c r="D819" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
@@ -18265,7 +18250,7 @@
         <v>1066</v>
       </c>
       <c r="D831" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
@@ -18293,7 +18278,7 @@
         <v>1066</v>
       </c>
       <c r="D833" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
@@ -18321,7 +18306,7 @@
         <v>1066</v>
       </c>
       <c r="D835" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
@@ -18461,7 +18446,7 @@
         <v>1066</v>
       </c>
       <c r="D845" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
@@ -18475,7 +18460,7 @@
         <v>1066</v>
       </c>
       <c r="D846" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
@@ -18489,7 +18474,7 @@
         <v>1066</v>
       </c>
       <c r="D847" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
@@ -18517,7 +18502,7 @@
         <v>1066</v>
       </c>
       <c r="D849" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
@@ -18531,7 +18516,7 @@
         <v>1066</v>
       </c>
       <c r="D850" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
@@ -18755,7 +18740,7 @@
         <v>1066</v>
       </c>
       <c r="D866" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
@@ -18951,7 +18936,7 @@
         <v>1066</v>
       </c>
       <c r="D880" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
@@ -18979,7 +18964,7 @@
         <v>1066</v>
       </c>
       <c r="D882" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
@@ -19007,7 +18992,7 @@
         <v>1066</v>
       </c>
       <c r="D884" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
@@ -19161,7 +19146,7 @@
         <v>1066</v>
       </c>
       <c r="D895" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
@@ -19371,7 +19356,7 @@
         <v>1272</v>
       </c>
       <c r="D910" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
@@ -19427,7 +19412,7 @@
         <v>1272</v>
       </c>
       <c r="D914" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
@@ -19623,7 +19608,7 @@
         <v>1290</v>
       </c>
       <c r="D928" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.3">
@@ -19833,7 +19818,7 @@
         <v>1290</v>
       </c>
       <c r="D943" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.3">
@@ -19945,7 +19930,7 @@
         <v>1290</v>
       </c>
       <c r="D951" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.3">
@@ -20113,7 +20098,7 @@
         <v>1290</v>
       </c>
       <c r="D963" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.3">
@@ -20183,7 +20168,7 @@
         <v>1290</v>
       </c>
       <c r="D968" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.3">
@@ -20337,7 +20322,7 @@
         <v>1290</v>
       </c>
       <c r="D979" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.3">
@@ -20421,7 +20406,7 @@
         <v>1290</v>
       </c>
       <c r="D985" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
@@ -20687,7 +20672,7 @@
         <v>1290</v>
       </c>
       <c r="D1004" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
@@ -20757,7 +20742,7 @@
         <v>1290</v>
       </c>
       <c r="D1009" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
@@ -20883,7 +20868,7 @@
         <v>1290</v>
       </c>
       <c r="D1018" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
@@ -21149,7 +21134,7 @@
         <v>1290</v>
       </c>
       <c r="D1037" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
@@ -21191,7 +21176,7 @@
         <v>1290</v>
       </c>
       <c r="D1040" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
@@ -21485,7 +21470,7 @@
         <v>1290</v>
       </c>
       <c r="D1061" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
@@ -21569,7 +21554,7 @@
         <v>1290</v>
       </c>
       <c r="D1067" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
@@ -21835,7 +21820,7 @@
         <v>1290</v>
       </c>
       <c r="D1086" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
@@ -21877,7 +21862,7 @@
         <v>1290</v>
       </c>
       <c r="D1089" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
@@ -21961,7 +21946,7 @@
         <v>1290</v>
       </c>
       <c r="D1095" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
@@ -22003,7 +21988,7 @@
         <v>1290</v>
       </c>
       <c r="D1098" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
@@ -22073,7 +22058,7 @@
         <v>1290</v>
       </c>
       <c r="D1103" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
@@ -22353,7 +22338,7 @@
         <v>1290</v>
       </c>
       <c r="D1123" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
@@ -22563,7 +22548,7 @@
         <v>1290</v>
       </c>
       <c r="D1138" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
@@ -22773,7 +22758,7 @@
         <v>1290</v>
       </c>
       <c r="D1153" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
@@ -22815,7 +22800,7 @@
         <v>1290</v>
       </c>
       <c r="D1156" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
@@ -22829,7 +22814,7 @@
         <v>1290</v>
       </c>
       <c r="D1157" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
@@ -22941,7 +22926,7 @@
         <v>1290</v>
       </c>
       <c r="D1165" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
@@ -22983,7 +22968,7 @@
         <v>1290</v>
       </c>
       <c r="D1168" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
@@ -23067,7 +23052,7 @@
         <v>1650</v>
       </c>
       <c r="D1174" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
@@ -23109,7 +23094,7 @@
         <v>1659</v>
       </c>
       <c r="D1177" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
@@ -23235,7 +23220,7 @@
         <v>1659</v>
       </c>
       <c r="D1186" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
@@ -23249,7 +23234,7 @@
         <v>1659</v>
       </c>
       <c r="D1187" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
@@ -23291,7 +23276,7 @@
         <v>1659</v>
       </c>
       <c r="D1190" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
@@ -23585,7 +23570,7 @@
         <v>1659</v>
       </c>
       <c r="D1211" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
@@ -23641,7 +23626,7 @@
         <v>1659</v>
       </c>
       <c r="D1215" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
@@ -23683,7 +23668,7 @@
         <v>1659</v>
       </c>
       <c r="D1218" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
@@ -23767,7 +23752,7 @@
         <v>1659</v>
       </c>
       <c r="D1224" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
@@ -23809,7 +23794,7 @@
         <v>1659</v>
       </c>
       <c r="D1227" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
@@ -23837,7 +23822,7 @@
         <v>1659</v>
       </c>
       <c r="D1229" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
@@ -23865,7 +23850,7 @@
         <v>1659</v>
       </c>
       <c r="D1231" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
@@ -23879,7 +23864,7 @@
         <v>1659</v>
       </c>
       <c r="D1232" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
@@ -23991,7 +23976,7 @@
         <v>1659</v>
       </c>
       <c r="D1240" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
@@ -24019,7 +24004,7 @@
         <v>1659</v>
       </c>
       <c r="D1242" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
@@ -24131,7 +24116,7 @@
         <v>1659</v>
       </c>
       <c r="D1250" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
@@ -24173,7 +24158,7 @@
         <v>1659</v>
       </c>
       <c r="D1253" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
@@ -24691,7 +24676,7 @@
         <v>1659</v>
       </c>
       <c r="D1290" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
@@ -24747,7 +24732,7 @@
         <v>1659</v>
       </c>
       <c r="D1294" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
@@ -25027,7 +25012,7 @@
         <v>1659</v>
       </c>
       <c r="D1314" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
@@ -25363,7 +25348,7 @@
         <v>245</v>
       </c>
       <c r="D1338" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
@@ -25447,7 +25432,7 @@
         <v>245</v>
       </c>
       <c r="D1344" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.3">
@@ -25517,7 +25502,7 @@
         <v>245</v>
       </c>
       <c r="D1349" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
@@ -25559,7 +25544,7 @@
         <v>245</v>
       </c>
       <c r="D1352" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
@@ -25587,7 +25572,7 @@
         <v>927</v>
       </c>
       <c r="D1354" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
@@ -25601,7 +25586,7 @@
         <v>927</v>
       </c>
       <c r="D1355" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
@@ -25671,7 +25656,7 @@
         <v>1290</v>
       </c>
       <c r="D1360" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
@@ -25797,7 +25782,7 @@
         <v>758</v>
       </c>
       <c r="D1369" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
@@ -25825,7 +25810,7 @@
         <v>1290</v>
       </c>
       <c r="D1371" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
@@ -25867,7 +25852,7 @@
         <v>1290</v>
       </c>
       <c r="D1374" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375" spans="1:4" x14ac:dyDescent="0.3">
@@ -25979,7 +25964,7 @@
         <v>1290</v>
       </c>
       <c r="D1382" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
@@ -26007,7 +25992,7 @@
         <v>1290</v>
       </c>
       <c r="D1384" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.3">
@@ -26035,7 +26020,7 @@
         <v>1290</v>
       </c>
       <c r="D1386" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
@@ -26133,7 +26118,7 @@
         <v>1290</v>
       </c>
       <c r="D1393" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.3">
@@ -26147,7 +26132,7 @@
         <v>1290</v>
       </c>
       <c r="D1394" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1395" spans="1:4" x14ac:dyDescent="0.3">
@@ -26203,7 +26188,7 @@
         <v>1290</v>
       </c>
       <c r="D1398" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
@@ -26273,7 +26258,7 @@
         <v>1290</v>
       </c>
       <c r="D1403" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.3">
@@ -26371,7 +26356,7 @@
         <v>1290</v>
       </c>
       <c r="D1410" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1411" spans="1:4" x14ac:dyDescent="0.3">
@@ -26427,7 +26412,7 @@
         <v>1290</v>
       </c>
       <c r="D1414" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415" spans="1:4" x14ac:dyDescent="0.3">
@@ -26469,7 +26454,7 @@
         <v>1290</v>
       </c>
       <c r="D1417" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1418" spans="1:4" x14ac:dyDescent="0.3">
@@ -26497,7 +26482,7 @@
         <v>1290</v>
       </c>
       <c r="D1419" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420" spans="1:4" x14ac:dyDescent="0.3">
@@ -26511,7 +26496,7 @@
         <v>1290</v>
       </c>
       <c r="D1420" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1421" spans="1:4" x14ac:dyDescent="0.3">
@@ -26525,7 +26510,7 @@
         <v>1290</v>
       </c>
       <c r="D1421" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1422" spans="1:4" x14ac:dyDescent="0.3">
@@ -26623,7 +26608,7 @@
         <v>1290</v>
       </c>
       <c r="D1428" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.3">
@@ -26648,194 +26633,280 @@
         <v>2004</v>
       </c>
       <c r="C1430" s="2" t="s">
-        <v>2005</v>
+        <v>1290</v>
+      </c>
+      <c r="D1430" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1431" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1431" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="B1431" s="2" t="s">
-        <v>2007</v>
-      </c>
       <c r="C1431" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1431" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1432" s="2" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B1432" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C1432" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1432" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1433" s="2" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B1433" s="2" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C1433" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1433" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1434" s="2" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B1434" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1434" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1434" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1435" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B1435" s="2" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C1435" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1435" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1436" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B1436" s="2" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="C1436" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1436" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1437" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1437" s="2" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="C1437" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1437" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1438" s="2" t="s">
-        <v>2019</v>
+        <v>611</v>
       </c>
       <c r="B1438" s="2" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="C1438" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1438" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1439" s="2" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B1439" s="2" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="C1439" s="2" t="s">
-        <v>2008</v>
+        <v>1290</v>
+      </c>
+      <c r="D1439" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1440" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1440" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1440" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1441" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1441" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1441" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1442" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1442" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1442" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1443" s="2" t="s">
         <v>2021</v>
       </c>
-      <c r="B1440" s="2" t="s">
+      <c r="B1443" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1443" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1443" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1444" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1444" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1444" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1445" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1445" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1445" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1446" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1446" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1446" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1447" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="C1440" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1441" s="2" t="s">
+      <c r="B1447" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="B1441" s="2" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1441" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1442" s="2" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B1442" s="2" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1442" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1443" s="2" t="s">
+      <c r="C1447" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1447" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1448" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="B1443" s="2" t="s">
+      <c r="B1448" s="2" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1449" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1450" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1450" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="C1443" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1444" s="2" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1444" s="2" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C1444" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1445" s="2" t="s">
-        <v>2027</v>
-      </c>
-      <c r="B1445" s="2" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C1445" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1446" s="2" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1446" s="2" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C1446" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1447" s="2" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B1447" s="2" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C1447" s="2" t="s">
-        <v>2008</v>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1451" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>2032</v>
       </c>
     </row>
   </sheetData>
